--- a/storage_lite_test_set.xlsx
+++ b/storage_lite_test_set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amicoh01\dev\logs\storage_lite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amicoh01\dev\mbed-os-example-storagelite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F5518548-9173-4770-AFDE-083764B91CA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7014444-A586-4192-85BB-F4C47CD63BCF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="6960" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="6960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esfs" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="363">
   <si>
     <t>brought to storage lite test</t>
   </si>
@@ -879,9 +879,6 @@
 </t>
   </si>
   <si>
-    <t>set file with buf bigger than allowed</t>
-  </si>
-  <si>
     <t xml:space="preserve">bad params : invalid flags </t>
   </si>
   <si>
@@ -938,9 +935,6 @@
     <t>get</t>
   </si>
   <si>
-    <t>Check the spec</t>
-  </si>
-  <si>
     <t>bad params : buf_size is 0 and buf is null (when file req. is not empty)</t>
   </si>
   <si>
@@ -968,12 +962,6 @@
     <t>get a removed file</t>
   </si>
   <si>
-    <t>get files with the same hash result (hash collision)</t>
-  </si>
-  <si>
-    <t>New API support similar hash</t>
-  </si>
-  <si>
     <t>flags: set RollBack - file retrieved ok</t>
   </si>
   <si>
@@ -1037,9 +1025,6 @@
     <t>set FR file, remove it and try to get_item_size on it</t>
   </si>
   <si>
-    <t>item_exist</t>
-  </si>
-  <si>
     <t>bad params : name is NULL and name_length is not 0</t>
   </si>
   <si>
@@ -1151,15 +1136,9 @@
     <t>create multiple files to exceed area size</t>
   </si>
   <si>
-    <t>reach max of files allowed</t>
-  </si>
-  <si>
     <t>STORAGELITE_MAX_FILES_REACHED</t>
   </si>
   <si>
-    <t>add many files (even max files), remove them, try to Get/Remove</t>
-  </si>
-  <si>
     <t>Storage Lite File System tests set</t>
   </si>
   <si>
@@ -1226,9 +1205,6 @@
     <t>SUCCESS</t>
   </si>
   <si>
-    <t>fails</t>
-  </si>
-  <si>
     <t>fopen with mode wb</t>
   </si>
   <si>
@@ -1238,39 +1214,18 @@
     <t xml:space="preserve">valid flow fopen and fclose </t>
   </si>
   <si>
-    <t>fclose to a NULL fd</t>
-  </si>
-  <si>
-    <t>EOF</t>
-  </si>
-  <si>
     <t>EBADF</t>
   </si>
   <si>
-    <t>doesnt fail</t>
-  </si>
-  <si>
-    <t>fclose to a closed fd</t>
-  </si>
-  <si>
-    <t>undefined behavior</t>
-  </si>
-  <si>
     <t>fwrite</t>
   </si>
   <si>
-    <t>fwrite with ptr as NULL, size and nmemb not zero</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
     <t>fwrite with size zero</t>
   </si>
   <si>
-    <t>write 0 elements – but read sizeof(buffer)</t>
-  </si>
-  <si>
     <t>fwrite with nmemb zero</t>
   </si>
   <si>
@@ -1289,12 +1244,6 @@
     <t>fread</t>
   </si>
   <si>
-    <t>fread with ptr as NULL, size and nmemb not zero</t>
-  </si>
-  <si>
-    <t>mbed HardFault</t>
-  </si>
-  <si>
     <t>fread with size zero</t>
   </si>
   <si>
@@ -1316,57 +1265,9 @@
     <t>fopen, fclose, try to fread</t>
   </si>
   <si>
-    <t>unsupported API</t>
-  </si>
-  <si>
-    <t>fflush</t>
-  </si>
-  <si>
-    <t>fgetc</t>
-  </si>
-  <si>
-    <t>fgetpos</t>
-  </si>
-  <si>
-    <t>fgets</t>
-  </si>
-  <si>
-    <t>fprintf</t>
-  </si>
-  <si>
-    <t>fputc</t>
-  </si>
-  <si>
-    <t>should return EOF</t>
-  </si>
-  <si>
-    <t>fputs</t>
-  </si>
-  <si>
-    <t>freopen</t>
-  </si>
-  <si>
-    <t>reopened file should be null</t>
-  </si>
-  <si>
-    <t>fscanf</t>
-  </si>
-  <si>
-    <t>fseek</t>
-  </si>
-  <si>
-    <t>should return res non zero</t>
-  </si>
-  <si>
-    <t>ftell</t>
-  </si>
-  <si>
     <t>two consecutive fwrite</t>
   </si>
   <si>
-    <t>doesn’t fail on the second fwrite, fail when trying to close the file</t>
-  </si>
-  <si>
     <t>fwrite, fclose, fwrite</t>
   </si>
   <si>
@@ -1376,47 +1277,29 @@
     <t>fread, fclose, fread</t>
   </si>
   <si>
-    <t>problems with returned code</t>
-  </si>
-  <si>
-    <t>tests research</t>
-  </si>
-  <si>
-    <t>cannot be checked because of API limitations</t>
-  </si>
-  <si>
-    <t>file.close of closed file fail as test expect</t>
-  </si>
-  <si>
-    <t>file.write doesnt fail</t>
-  </si>
-  <si>
-    <t>file.write success as test expect (return 0) – not exactly same API</t>
-  </si>
-  <si>
-    <t>file.read success as test expect (return 0)</t>
-  </si>
-  <si>
-    <t>file.sync fail - returns ENOSYS( Function not implemented)</t>
-  </si>
-  <si>
-    <t>file.seek return success but trying to read from file result in ENOMEM          12  /* Out of memory</t>
-  </si>
-  <si>
-    <t>ftell return 0, tried to move it with file.seek, didnt work</t>
-  </si>
-  <si>
-    <t>no implementation</t>
-  </si>
-  <si>
-    <t>fail on the seconf frite as test expect</t>
+    <t>file_exist</t>
+  </si>
+  <si>
+    <t>STORAGELITE_NO_SPACE_ON_BD</t>
+  </si>
+  <si>
+    <t>reach max area with different files</t>
+  </si>
+  <si>
+    <t>exceed max of files allowed</t>
+  </si>
+  <si>
+    <t>add max files allowed, remove them, try to Get file</t>
+  </si>
+  <si>
+    <t>add max files allowed, remove them, add them again</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1465,12 +1348,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibari"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1551,7 +1428,7 @@
       <name val="Liberation Sans"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1592,12 +1469,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1643,7 +1514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1696,17 +1567,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF808080"/>
       </left>
       <right style="thin">
@@ -1723,28 +1583,28 @@
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="4"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1800,23 +1660,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Accent" xfId="9" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
@@ -2225,14 +2073,14 @@
       <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="29.7265625" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" customWidth="1"/>
-    <col min="5" max="5" width="55.54296875" customWidth="1"/>
-    <col min="6" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.5703125" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2318,7 +2166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29">
+    <row r="8" spans="1:5" ht="30">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -2332,7 +2180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="58">
+    <row r="9" spans="1:5" ht="60">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2346,7 +2194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="58">
+    <row r="10" spans="1:5" ht="60">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2427,7 +2275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29">
+    <row r="16" spans="1:5" ht="45">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -2496,7 +2344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="29">
+    <row r="22" spans="2:5" ht="30">
       <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
@@ -2510,7 +2358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="29">
+    <row r="23" spans="2:5" ht="30">
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
@@ -2521,7 +2369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="29">
+    <row r="24" spans="2:5" ht="30">
       <c r="B24" s="6" t="s">
         <v>42</v>
       </c>
@@ -2532,7 +2380,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="29">
+    <row r="25" spans="2:5" ht="30">
       <c r="B25" s="6" t="s">
         <v>43</v>
       </c>
@@ -2543,7 +2391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="29">
+    <row r="26" spans="2:5" ht="30">
       <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
@@ -2565,7 +2413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="29">
+    <row r="28" spans="2:5" ht="30">
       <c r="B28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2576,7 +2424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="29">
+    <row r="29" spans="2:5" ht="30">
       <c r="B29" s="2" t="s">
         <v>47</v>
       </c>
@@ -2587,7 +2435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="29">
+    <row r="30" spans="2:5" ht="30">
       <c r="B30" t="s">
         <v>48</v>
       </c>
@@ -2601,7 +2449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" ht="30">
       <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
@@ -2612,7 +2460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="29">
+    <row r="32" spans="2:5" ht="30">
       <c r="B32" s="2" t="s">
         <v>52</v>
       </c>
@@ -2623,7 +2471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="29">
+    <row r="33" spans="1:5" ht="30">
       <c r="B33" s="2" t="s">
         <v>53</v>
       </c>
@@ -2634,7 +2482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="29">
+    <row r="34" spans="1:5" ht="30">
       <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
@@ -2645,7 +2493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29">
+    <row r="35" spans="1:5" ht="30">
       <c r="B35" s="2" t="s">
         <v>55</v>
       </c>
@@ -2656,7 +2504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="43.5">
+    <row r="36" spans="1:5" ht="45">
       <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
@@ -2667,7 +2515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="72.5">
+    <row r="37" spans="1:5" ht="75">
       <c r="B37" s="2" t="s">
         <v>57</v>
       </c>
@@ -2678,7 +2526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29">
+    <row r="38" spans="1:5" ht="30">
       <c r="B38" s="2" t="s">
         <v>58</v>
       </c>
@@ -2689,7 +2537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="29">
+    <row r="39" spans="1:5" ht="30">
       <c r="B39" s="2" t="s">
         <v>59</v>
       </c>
@@ -2736,7 +2584,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="58">
+    <row r="43" spans="1:5" ht="60">
       <c r="B43" s="2" t="s">
         <v>64</v>
       </c>
@@ -2928,13 +2776,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="72.5">
+    <row r="58" spans="1:5" ht="75">
       <c r="B58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="29">
+    <row r="59" spans="1:5" ht="30">
       <c r="B59" s="2" t="s">
         <v>80</v>
       </c>
@@ -2945,7 +2793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="29">
+    <row r="60" spans="1:5" ht="30">
       <c r="B60" s="2" t="s">
         <v>81</v>
       </c>
@@ -2956,7 +2804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="29">
+    <row r="61" spans="1:5" ht="30">
       <c r="B61" s="2" t="s">
         <v>82</v>
       </c>
@@ -2967,7 +2815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="29">
+    <row r="62" spans="1:5" ht="30">
       <c r="B62" s="2" t="s">
         <v>83</v>
       </c>
@@ -2978,7 +2826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="29">
+    <row r="63" spans="1:5" ht="30">
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
@@ -2989,7 +2837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="29">
+    <row r="64" spans="1:5" ht="30">
       <c r="B64" s="2" t="s">
         <v>85</v>
       </c>
@@ -3000,7 +2848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="43.5">
+    <row r="65" spans="1:5" ht="45">
       <c r="B65" s="2" t="s">
         <v>86</v>
       </c>
@@ -3011,7 +2859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="29">
+    <row r="66" spans="1:5" ht="45">
       <c r="B66" s="2" t="s">
         <v>87</v>
       </c>
@@ -3022,7 +2870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="29">
+    <row r="67" spans="1:5" ht="45">
       <c r="B67" s="2" t="s">
         <v>88</v>
       </c>
@@ -3044,7 +2892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="30">
       <c r="B69" s="6" t="s">
         <v>91</v>
       </c>
@@ -3102,7 +2950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="29">
+    <row r="74" spans="1:5" ht="45">
       <c r="B74" s="6" t="s">
         <v>97</v>
       </c>
@@ -3152,7 +3000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="29">
+    <row r="78" spans="1:5" ht="30">
       <c r="B78" s="2" t="s">
         <v>103</v>
       </c>
@@ -3166,7 +3014,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="43.5">
+    <row r="79" spans="1:5" ht="45">
       <c r="B79" s="2" t="s">
         <v>105</v>
       </c>
@@ -3177,7 +3025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="29">
+    <row r="80" spans="1:5" ht="30">
       <c r="B80" s="2" t="s">
         <v>106</v>
       </c>
@@ -3224,7 +3072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="29">
+    <row r="84" spans="1:5" ht="30">
       <c r="B84" s="2" t="s">
         <v>109</v>
       </c>
@@ -3235,7 +3083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="29">
+    <row r="85" spans="1:5" ht="30">
       <c r="B85" s="2" t="s">
         <v>110</v>
       </c>
@@ -3246,7 +3094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="29">
+    <row r="86" spans="1:5" ht="30">
       <c r="B86" s="2" t="s">
         <v>111</v>
       </c>
@@ -3257,7 +3105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="30">
       <c r="B87" s="2" t="s">
         <v>112</v>
       </c>
@@ -3268,7 +3116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="43.5">
+    <row r="88" spans="1:5" ht="45">
       <c r="B88" s="2" t="s">
         <v>113</v>
       </c>
@@ -3315,7 +3163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="29">
+    <row r="92" spans="1:5" ht="30">
       <c r="B92" s="2" t="s">
         <v>117</v>
       </c>
@@ -3329,7 +3177,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="29">
+    <row r="93" spans="1:5" ht="45">
       <c r="B93" s="2" t="s">
         <v>119</v>
       </c>
@@ -3343,7 +3191,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="29">
+    <row r="94" spans="1:5" ht="30">
       <c r="B94" s="2" t="s">
         <v>120</v>
       </c>
@@ -3357,7 +3205,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="29">
+    <row r="95" spans="1:5" ht="30">
       <c r="B95" s="2" t="s">
         <v>122</v>
       </c>
@@ -3371,7 +3219,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="29">
+    <row r="96" spans="1:5" ht="30">
       <c r="B96" s="2" t="s">
         <v>123</v>
       </c>
@@ -3385,7 +3233,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="29">
+    <row r="97" spans="2:9" ht="30">
       <c r="B97" s="2" t="s">
         <v>124</v>
       </c>
@@ -3399,7 +3247,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="29">
+    <row r="98" spans="2:9" ht="45">
       <c r="B98" s="2" t="s">
         <v>125</v>
       </c>
@@ -3413,7 +3261,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="29">
+    <row r="99" spans="2:9" ht="30">
       <c r="B99" s="2" t="s">
         <v>126</v>
       </c>
@@ -3427,7 +3275,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="29">
+    <row r="100" spans="2:9" ht="30">
       <c r="B100" s="2" t="s">
         <v>127</v>
       </c>
@@ -3441,7 +3289,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="29">
+    <row r="101" spans="2:9" ht="30">
       <c r="B101" s="2" t="s">
         <v>128</v>
       </c>
@@ -3455,7 +3303,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="29">
+    <row r="102" spans="2:9" ht="30">
       <c r="B102" s="2" t="s">
         <v>129</v>
       </c>
@@ -3469,7 +3317,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="29">
+    <row r="103" spans="2:9" ht="45">
       <c r="B103" s="2" t="s">
         <v>130</v>
       </c>
@@ -3483,7 +3331,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="29">
+    <row r="104" spans="2:9" ht="30">
       <c r="B104" s="2" t="s">
         <v>131</v>
       </c>
@@ -3497,7 +3345,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="29">
+    <row r="105" spans="2:9" ht="30">
       <c r="B105" s="2" t="s">
         <v>132</v>
       </c>
@@ -3514,7 +3362,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="29">
+    <row r="106" spans="2:9" ht="30">
       <c r="B106" s="2" t="s">
         <v>134</v>
       </c>
@@ -3528,7 +3376,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="58">
+    <row r="107" spans="2:9" ht="60">
       <c r="B107" s="2" t="s">
         <v>135</v>
       </c>
@@ -3542,7 +3390,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="43.5">
+    <row r="108" spans="2:9" ht="45">
       <c r="B108" s="2" t="s">
         <v>137</v>
       </c>
@@ -3556,7 +3404,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="72.5">
+    <row r="109" spans="2:9" ht="90">
       <c r="B109" s="2" t="s">
         <v>138</v>
       </c>
@@ -3581,7 +3429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="87">
+    <row r="111" spans="2:9" ht="90">
       <c r="B111" s="2" t="s">
         <v>140</v>
       </c>
@@ -3595,7 +3443,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="43.5">
+    <row r="112" spans="2:9" ht="45">
       <c r="B112" s="2" t="s">
         <v>141</v>
       </c>
@@ -3609,7 +3457,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="43.5">
+    <row r="113" spans="1:5" ht="45">
       <c r="B113" s="2" t="s">
         <v>142</v>
       </c>
@@ -3659,7 +3507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="29">
+    <row r="117" spans="1:5" ht="30">
       <c r="B117" s="6" t="s">
         <v>144</v>
       </c>
@@ -3712,7 +3560,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="29">
+    <row r="121" spans="1:5" ht="30">
       <c r="B121" s="6" t="s">
         <v>147</v>
       </c>
@@ -3740,7 +3588,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="29">
+    <row r="123" spans="1:5" ht="30">
       <c r="B123" s="6" t="s">
         <v>149</v>
       </c>
@@ -3829,7 +3677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="29">
+    <row r="130" spans="1:5" ht="30">
       <c r="B130" s="2" t="s">
         <v>159</v>
       </c>
@@ -3840,7 +3688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="29">
+    <row r="131" spans="1:5" ht="30">
       <c r="B131" s="2" t="s">
         <v>160</v>
       </c>
@@ -3851,7 +3699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="29">
+    <row r="132" spans="1:5" ht="30">
       <c r="B132" s="2" t="s">
         <v>161</v>
       </c>
@@ -3862,7 +3710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="29">
+    <row r="133" spans="1:5" ht="45">
       <c r="B133" s="2" t="s">
         <v>162</v>
       </c>
@@ -3873,7 +3721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="29">
+    <row r="134" spans="1:5" ht="30">
       <c r="B134" s="2" t="s">
         <v>163</v>
       </c>
@@ -3884,7 +3732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="29">
+    <row r="135" spans="1:5" ht="45">
       <c r="B135" s="2" t="s">
         <v>164</v>
       </c>
@@ -3895,7 +3743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="29">
+    <row r="136" spans="1:5" ht="45">
       <c r="B136" s="2" t="s">
         <v>165</v>
       </c>
@@ -3906,7 +3754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="29">
+    <row r="137" spans="1:5" ht="30">
       <c r="B137" s="2" t="s">
         <v>167</v>
       </c>
@@ -3917,7 +3765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="43.5">
+    <row r="138" spans="1:5" ht="45">
       <c r="B138" s="6" t="s">
         <v>168</v>
       </c>
@@ -3928,7 +3776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="29">
+    <row r="139" spans="1:5" ht="45">
       <c r="B139" s="2" t="s">
         <v>169</v>
       </c>
@@ -3967,7 +3815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="29">
+    <row r="142" spans="1:5" ht="30">
       <c r="B142" s="2" t="s">
         <v>173</v>
       </c>
@@ -3981,7 +3829,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="29">
+    <row r="143" spans="1:5" ht="30">
       <c r="B143" s="2" t="s">
         <v>175</v>
       </c>
@@ -3995,7 +3843,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="29">
+    <row r="144" spans="1:5" ht="30">
       <c r="B144" s="2" t="s">
         <v>176</v>
       </c>
@@ -4009,7 +3857,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="145" spans="2:5" ht="29">
+    <row r="145" spans="2:5" ht="30">
       <c r="B145" s="2" t="s">
         <v>177</v>
       </c>
@@ -4023,7 +3871,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="2:5" ht="29">
+    <row r="146" spans="2:5" ht="45">
       <c r="B146" s="2" t="s">
         <v>178</v>
       </c>
@@ -4037,7 +3885,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="29">
+    <row r="147" spans="2:5" ht="30">
       <c r="B147" s="2" t="s">
         <v>179</v>
       </c>
@@ -4051,7 +3899,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="43.5">
+    <row r="148" spans="2:5" ht="45">
       <c r="B148" s="2" t="s">
         <v>180</v>
       </c>
@@ -4065,7 +3913,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="2:5" ht="29">
+    <row r="149" spans="2:5" ht="45">
       <c r="B149" s="2" t="s">
         <v>181</v>
       </c>
@@ -4093,7 +3941,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="29">
+    <row r="151" spans="2:5" ht="45">
       <c r="B151" s="2" t="s">
         <v>183</v>
       </c>
@@ -4107,7 +3955,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="152" spans="2:5" ht="29">
+    <row r="152" spans="2:5" ht="45">
       <c r="B152" s="2" t="s">
         <v>184</v>
       </c>
@@ -4121,7 +3969,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="43.5">
+    <row r="153" spans="2:5" ht="45">
       <c r="B153" s="2" t="s">
         <v>185</v>
       </c>
@@ -4135,7 +3983,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="43.5">
+    <row r="154" spans="2:5" ht="45">
       <c r="B154" s="2" t="s">
         <v>186</v>
       </c>
@@ -4149,7 +3997,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="43.5">
+    <row r="155" spans="2:5" ht="45">
       <c r="B155" s="2" t="s">
         <v>187</v>
       </c>
@@ -4163,7 +4011,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="156" spans="2:5" ht="43.5">
+    <row r="156" spans="2:5" ht="45">
       <c r="B156" s="2" t="s">
         <v>188</v>
       </c>
@@ -4177,7 +4025,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="2:5" ht="43.5">
+    <row r="157" spans="2:5" ht="45">
       <c r="B157" s="2" t="s">
         <v>189</v>
       </c>
@@ -4191,7 +4039,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="43.5">
+    <row r="158" spans="2:5" ht="45">
       <c r="B158" s="2" t="s">
         <v>190</v>
       </c>
@@ -4205,7 +4053,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="159" spans="2:5" ht="43.5">
+    <row r="159" spans="2:5" ht="45">
       <c r="B159" s="2" t="s">
         <v>191</v>
       </c>
@@ -4219,7 +4067,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="2:5" ht="43.5">
+    <row r="160" spans="2:5" ht="45">
       <c r="B160" s="2" t="s">
         <v>192</v>
       </c>
@@ -4233,7 +4081,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="43.5">
+    <row r="161" spans="1:5" ht="45">
       <c r="B161" s="2" t="s">
         <v>193</v>
       </c>
@@ -4247,7 +4095,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="43.5">
+    <row r="162" spans="1:5" ht="45">
       <c r="B162" s="2" t="s">
         <v>194</v>
       </c>
@@ -4261,7 +4109,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="43.5">
+    <row r="163" spans="1:5" ht="45">
       <c r="B163" s="2" t="s">
         <v>195</v>
       </c>
@@ -4275,7 +4123,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="43.5">
+    <row r="164" spans="1:5" ht="60">
       <c r="B164" s="2" t="s">
         <v>196</v>
       </c>
@@ -4289,7 +4137,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="43.5">
+    <row r="165" spans="1:5" ht="45">
       <c r="B165" s="2" t="s">
         <v>197</v>
       </c>
@@ -4303,7 +4151,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="43.5">
+    <row r="166" spans="1:5" ht="60">
       <c r="B166" s="2" t="s">
         <v>198</v>
       </c>
@@ -4317,7 +4165,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="43.5">
+    <row r="167" spans="1:5" ht="45">
       <c r="B167" s="2" t="s">
         <v>199</v>
       </c>
@@ -4331,7 +4179,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="43.5">
+    <row r="168" spans="1:5" ht="45">
       <c r="B168" s="2" t="s">
         <v>201</v>
       </c>
@@ -4345,7 +4193,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="43.5">
+    <row r="169" spans="1:5" ht="45">
       <c r="B169" s="2" t="s">
         <v>202</v>
       </c>
@@ -4373,7 +4221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="29">
+    <row r="171" spans="1:5" ht="30">
       <c r="B171" s="2" t="s">
         <v>205</v>
       </c>
@@ -4387,7 +4235,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="72.5">
+    <row r="172" spans="1:5" ht="75">
       <c r="B172" s="2" t="s">
         <v>207</v>
       </c>
@@ -4398,7 +4246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="101.5">
+    <row r="173" spans="1:5" ht="105">
       <c r="B173" s="2" t="s">
         <v>208</v>
       </c>
@@ -4412,7 +4260,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="72.5">
+    <row r="174" spans="1:5" ht="90">
       <c r="B174" s="2" t="s">
         <v>210</v>
       </c>
@@ -4423,7 +4271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="58">
+    <row r="175" spans="1:5" ht="60">
       <c r="B175" s="2" t="s">
         <v>211</v>
       </c>
@@ -4434,7 +4282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="72.5">
+    <row r="176" spans="1:5" ht="75">
       <c r="B176" s="2" t="s">
         <v>212</v>
       </c>
@@ -4445,7 +4293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="2:4" ht="72.5">
+    <row r="177" spans="2:4" ht="75">
       <c r="B177" s="2" t="s">
         <v>213</v>
       </c>
@@ -4456,7 +4304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="2:4" ht="72.5">
+    <row r="178" spans="2:4" ht="75">
       <c r="B178" s="2" t="s">
         <v>214</v>
       </c>
@@ -4467,7 +4315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="2:4" ht="72.5">
+    <row r="179" spans="2:4" ht="75">
       <c r="B179" s="2" t="s">
         <v>215</v>
       </c>
@@ -4478,7 +4326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="2:4" ht="72.5">
+    <row r="180" spans="2:4" ht="75">
       <c r="B180" s="2" t="s">
         <v>216</v>
       </c>
@@ -4489,7 +4337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="2:4" ht="58">
+    <row r="181" spans="2:4" ht="60">
       <c r="B181" s="2" t="s">
         <v>217</v>
       </c>
@@ -4500,7 +4348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="2:4" ht="72.5">
+    <row r="182" spans="2:4" ht="75">
       <c r="B182" s="2" t="s">
         <v>218</v>
       </c>
@@ -4511,7 +4359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="2:4" ht="43.5">
+    <row r="183" spans="2:4" ht="45">
       <c r="B183" s="2" t="s">
         <v>219</v>
       </c>
@@ -4522,7 +4370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="2:4" ht="43.5">
+    <row r="184" spans="2:4" ht="45">
       <c r="B184" s="2" t="s">
         <v>220</v>
       </c>
@@ -4533,7 +4381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="2:4" ht="72.5">
+    <row r="185" spans="2:4" ht="75">
       <c r="B185" s="2" t="s">
         <v>221</v>
       </c>
@@ -4544,7 +4392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="2:4" ht="101.5">
+    <row r="186" spans="2:4" ht="105">
       <c r="B186" s="2" t="s">
         <v>222</v>
       </c>
@@ -4555,7 +4403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="2:4" ht="58">
+    <row r="187" spans="2:4" ht="60">
       <c r="B187" s="2" t="s">
         <v>223</v>
       </c>
@@ -4566,7 +4414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="2:4" ht="58">
+    <row r="188" spans="2:4" ht="60">
       <c r="B188" s="2" t="s">
         <v>224</v>
       </c>
@@ -4577,7 +4425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="2:4" ht="43.5">
+    <row r="189" spans="2:4" ht="45">
       <c r="B189" s="2" t="s">
         <v>225</v>
       </c>
@@ -4590,24 +4438,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:F106"/>
+  <dimension ref="B3:F103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="69.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="69.42578125" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" customWidth="1"/>
-    <col min="6" max="6" width="73.1796875" customWidth="1"/>
-    <col min="7" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="73.140625" customWidth="1"/>
+    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="23.5">
+    <row r="3" spans="2:6" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>226</v>
       </c>
@@ -4671,7 +4519,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="2:6" ht="29">
+    <row r="9" spans="2:6" ht="30">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>230</v>
@@ -4695,12 +4543,14 @@
       <c r="E10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>228</v>
@@ -4708,9 +4558,7 @@
       <c r="E11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>233</v>
-      </c>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="11"/>
@@ -4723,81 +4571,81 @@
       <c r="E12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>236</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>238</v>
-      </c>
       <c r="E14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="D18" s="19"/>
+      <c r="C18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="10" t="s">
-        <v>243</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>228</v>
@@ -4810,7 +4658,7 @@
     <row r="20" spans="2:6">
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>228</v>
@@ -4820,10 +4668,10 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" ht="30">
       <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
-        <v>31</v>
+      <c r="C21" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>228</v>
@@ -4831,12 +4679,12 @@
       <c r="E21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="2:6" ht="29">
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
-        <v>230</v>
+      <c r="C22" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>228</v>
@@ -4849,7 +4697,7 @@
     <row r="23" spans="2:6">
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>228</v>
@@ -4862,25 +4710,25 @@
     <row r="24" spans="2:6">
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>244</v>
+        <v>237</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="11"/>
       <c r="C25" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>29</v>
@@ -4890,38 +4738,36 @@
     <row r="26" spans="2:6">
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>247</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="12"/>
+        <v>237</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="11"/>
       <c r="C28" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>29</v>
@@ -4930,104 +4776,102 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="20" t="s">
         <v>252</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="11"/>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>251</v>
+      <c r="D30" s="21" t="s">
+        <v>254</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="20" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="11"/>
-      <c r="C32" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="20"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="11"/>
-      <c r="C33" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="20" t="s">
+      <c r="C34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="11"/>
-      <c r="C34" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>228</v>
@@ -5040,23 +4884,23 @@
     <row r="38" spans="2:6">
       <c r="B38" s="11"/>
       <c r="C38" s="11" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>29</v>
+        <v>237</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="11"/>
       <c r="C39" s="11" t="s">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>29</v>
@@ -5066,10 +4910,10 @@
     <row r="40" spans="2:6">
       <c r="B40" s="11"/>
       <c r="C40" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>29</v>
@@ -5079,70 +4923,70 @@
     <row r="41" spans="2:6">
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="19"/>
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="11"/>
       <c r="C44" s="11" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>268</v>
-      </c>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="D45" s="19"/>
-      <c r="E45" s="25"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="D46" s="19"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="10" t="s">
-        <v>269</v>
-      </c>
+      <c r="B47" s="11"/>
       <c r="C47" s="11" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>228</v>
@@ -5155,10 +4999,10 @@
     <row r="48" spans="2:6">
       <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>29</v>
@@ -5168,23 +5012,23 @@
     <row r="49" spans="2:6">
       <c r="B49" s="11"/>
       <c r="C49" s="11" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>29</v>
+        <v>237</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="F49" s="11"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>29</v>
@@ -5194,28 +5038,30 @@
     <row r="51" spans="2:6">
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>29</v>
+        <v>237</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="11"/>
@@ -5223,69 +5069,67 @@
         <v>272</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="19"/>
+      <c r="E54" s="25"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="11"/>
-      <c r="C56" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="D57" s="19"/>
-      <c r="E57" s="25"/>
+      <c r="D57" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="D58" s="19"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="10" t="s">
-        <v>277</v>
-      </c>
+      <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>228</v>
@@ -5298,10 +5142,10 @@
     <row r="60" spans="2:6">
       <c r="B60" s="11"/>
       <c r="C60" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>29</v>
@@ -5311,23 +5155,23 @@
     <row r="61" spans="2:6">
       <c r="B61" s="11"/>
       <c r="C61" s="11" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>29</v>
+        <v>237</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="F61" s="11"/>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="11"/>
       <c r="C62" s="11" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>29</v>
@@ -5337,70 +5181,70 @@
     <row r="63" spans="2:6">
       <c r="B63" s="11"/>
       <c r="C63" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="11"/>
+      <c r="F63" s="11" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="11"/>
-      <c r="C64" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="11"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="11"/>
-      <c r="C65" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="11"/>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="11"/>
+      <c r="B66" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="C66" s="11" t="s">
-        <v>282</v>
+        <v>27</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>268</v>
-      </c>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="D67" s="19"/>
-      <c r="E67" s="25"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="D68" s="19"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="10" t="s">
-        <v>283</v>
-      </c>
+      <c r="B69" s="11"/>
       <c r="C69" s="11" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>228</v>
@@ -5413,10 +5257,10 @@
     <row r="70" spans="2:6">
       <c r="B70" s="11"/>
       <c r="C70" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>29</v>
@@ -5426,23 +5270,23 @@
     <row r="71" spans="2:6">
       <c r="B71" s="11"/>
       <c r="C71" s="11" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>29</v>
+        <v>237</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="F71" s="11"/>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="11"/>
       <c r="C72" s="11" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>29</v>
@@ -5452,72 +5296,72 @@
     <row r="73" spans="2:6">
       <c r="B73" s="11"/>
       <c r="C73" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="D74" s="19"/>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="11"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D73" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="11"/>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="11"/>
-      <c r="C74" s="11" t="s">
+      <c r="D77" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="11"/>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="11"/>
-      <c r="C75" s="11" t="s">
+      <c r="D78" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="11"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="11"/>
+      <c r="C79" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="11"/>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="11"/>
-      <c r="C76" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="D77" s="19"/>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="D78" s="19"/>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>288</v>
-      </c>
       <c r="D79" s="12" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>29</v>
@@ -5527,96 +5371,96 @@
     <row r="80" spans="2:6">
       <c r="B80" s="11"/>
       <c r="C80" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>29</v>
+        <v>237</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="11"/>
       <c r="C81" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="D82" s="19"/>
+      <c r="E82" s="26"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="D83" s="19"/>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D81" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="11"/>
-      <c r="C82" s="11" t="s">
+      <c r="C84" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="11"/>
+      <c r="C85" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D85" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E82" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="11"/>
-      <c r="C83" s="11" t="s">
+      <c r="E85" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D83" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="11"/>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="11"/>
-      <c r="C84" s="11" t="s">
+      <c r="D86" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="D85" s="19"/>
-      <c r="E85" s="26"/>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="D86" s="19"/>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>288</v>
-      </c>
       <c r="D87" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>29</v>
+        <v>237</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="F87" s="11"/>
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="11"/>
       <c r="C88" s="11" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>228</v>
@@ -5629,127 +5473,107 @@
     <row r="89" spans="2:6">
       <c r="B89" s="11"/>
       <c r="C89" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D89" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" s="11"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="11"/>
-      <c r="C90" s="11" t="s">
+      <c r="D90" s="19"/>
+      <c r="E90" s="26"/>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="D91" s="19"/>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D90" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="11"/>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="11"/>
-      <c r="C91" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D91" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="11"/>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="11"/>
-      <c r="C92" s="11" t="s">
-        <v>299</v>
-      </c>
       <c r="D92" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="11"/>
+        <v>237</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="27"/>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="11"/>
       <c r="C93" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="27"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="11"/>
+      <c r="C94" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D93" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="11" t="s">
+      <c r="D94" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="94" spans="2:6">
-      <c r="D94" s="19"/>
-      <c r="E94" s="26"/>
-    </row>
     <row r="95" spans="2:6">
-      <c r="D95" s="19"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="10" t="s">
-        <v>302</v>
-      </c>
+      <c r="B96" s="11"/>
       <c r="C96" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E96" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F96" s="27"/>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="11"/>
-      <c r="C97" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97" s="27"/>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="11"/>
-      <c r="C98" s="11" t="s">
+      <c r="F96" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D98" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="11" t="s">
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="10" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="11"/>
       <c r="C99" s="11" t="s">
         <v>307</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E99" s="15" t="s">
         <v>11</v>
@@ -5764,72 +5588,53 @@
         <v>309</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>11</v>
+        <v>358</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="F100" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="11"/>
+      <c r="C101" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D101" s="12" t="s">
         <v>310</v>
       </c>
+      <c r="E101" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="11"/>
+      <c r="C102" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="20"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6">
-      <c r="B104" s="11"/>
-      <c r="C104" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="11"/>
-      <c r="C105" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F105" s="11"/>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="B106" s="11"/>
-      <c r="C106" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F106" s="20"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5839,31 +5644,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:H55"/>
+  <dimension ref="B3:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
-    <col min="3" max="3" width="52.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
-    <col min="7" max="7" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" customWidth="1"/>
     <col min="8" max="8" width="89" customWidth="1"/>
-    <col min="9" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="9" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="23.5">
+    <row r="3" spans="2:7" ht="23.25">
       <c r="B3" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
@@ -5871,10 +5676,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>6</v>
@@ -5882,182 +5687,174 @@
       <c r="G6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="37" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="29"/>
       <c r="C8" s="30" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="29"/>
       <c r="C9" s="30" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D9" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>330</v>
-      </c>
       <c r="F9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="29"/>
       <c r="C10" s="29" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D10" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>330</v>
-      </c>
       <c r="F10" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="29"/>
       <c r="C11" s="29" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D11" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>330</v>
-      </c>
       <c r="F11" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="29"/>
       <c r="C12" s="29" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D12" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>330</v>
-      </c>
       <c r="F12" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="29"/>
       <c r="C13" s="29" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D13" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>330</v>
-      </c>
       <c r="F13" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="29"/>
       <c r="C14" s="20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D14" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>330</v>
-      </c>
       <c r="F14" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="29"/>
-      <c r="C15" s="31" t="s">
-        <v>338</v>
+      <c r="C15" s="20" t="s">
+        <v>331</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="29"/>
       <c r="C16" s="20" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="15" t="s">
@@ -6065,15 +5862,15 @@
       </c>
       <c r="G16" s="29"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:7">
       <c r="B19" s="10" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="15" t="s">
@@ -6081,550 +5878,263 @@
       </c>
       <c r="G19" s="29"/>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="29"/>
-      <c r="C20" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="29"/>
-      <c r="C21" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="E22" s="2"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>351</v>
+    <row r="20" spans="2:7">
+      <c r="E20" s="2"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <v>332</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="29"/>
-      <c r="C25" s="32" t="s">
-        <v>353</v>
+      <c r="C25" s="29" t="s">
+        <v>343</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+        <v>338</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="29"/>
       <c r="C26" s="29" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+        <v>338</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="29"/>
-      <c r="C27" s="29" t="s">
-        <v>357</v>
+      <c r="C27" s="35" t="s">
+        <v>353</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="15" t="s">
-        <v>11</v>
+        <v>338</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="G27" s="29"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:7">
       <c r="B28" s="29"/>
-      <c r="C28" s="29" t="s">
-        <v>358</v>
+      <c r="C28" s="32" t="s">
+        <v>354</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E28" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="C29" s="31"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="29"/>
-      <c r="C30" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="H30" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="29"/>
-      <c r="C31" s="36" t="s">
-        <v>387</v>
-      </c>
       <c r="D31" s="29" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="29"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="C32" s="35"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="26"/>
+      <c r="G31" s="29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>361</v>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29" t="s">
+        <v>350</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>396</v>
+      <c r="G34" s="29" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="29"/>
       <c r="C35" s="29" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>364</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="29"/>
       <c r="C36" s="29" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>364</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="29"/>
-      <c r="C37" s="29" t="s">
-        <v>366</v>
+      <c r="C37" s="35" t="s">
+        <v>355</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="29"/>
+        <v>338</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="29"/>
-      <c r="C38" s="29" t="s">
-        <v>367</v>
+      <c r="C38" s="32" t="s">
+        <v>356</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="29"/>
-      <c r="C39" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="29"/>
-      <c r="C40" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="29"/>
+        <v>332</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="29"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="29"/>
-      <c r="C41" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="29"/>
-      <c r="C42" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="29"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="29"/>
-      <c r="C46" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="29"/>
-      <c r="C47" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="H47" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="29"/>
-      <c r="C48" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="29"/>
-      <c r="C49" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="H49" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="29"/>
-      <c r="C50" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="H50" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="29"/>
-      <c r="C51" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="H51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="29"/>
-      <c r="C52" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="H52" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="29"/>
-      <c r="C53" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="29"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="29"/>
-      <c r="C54" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="H54" s="45" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="29"/>
-      <c r="C55" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="H55" s="45" t="s">
-        <v>399</v>
-      </c>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="34"/>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
